--- a/WSC/Test Report/SLCM/WSC SLCM_Admission-Admission_Master.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Admission-Admission_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="455">
   <si>
     <t>Contents</t>
   </si>
@@ -250,9 +250,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>The page should open with all the generic buttons and fields as a normal application behavior</t>
@@ -1995,10 +1995,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2046,6 +2046,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2068,14 +2076,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2230,7 +2230,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2246,12 +2246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,16 +2660,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2684,7 +2678,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2708,108 +2702,108 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2865,11 +2859,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2883,39 +2881,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,9 +2930,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2936,10 +2946,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2957,9 +2967,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2972,12 +2979,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2993,23 +2994,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3055,15 +3065,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3073,17 +3080,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3130,10 +3146,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3147,13 +3163,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3167,7 +3183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3195,44 +3211,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -3570,77 +3588,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.0857142857143" style="163" customWidth="1"/>
-    <col min="2" max="2" width="26.2857142857143" style="163" customWidth="1"/>
-    <col min="3" max="5" width="21.5428571428571" style="163" customWidth="1"/>
-    <col min="6" max="6" width="22.1809523809524" style="163" customWidth="1"/>
-    <col min="7" max="7" width="19.7238095238095" style="163" customWidth="1"/>
-    <col min="8" max="8" width="15" style="163" customWidth="1"/>
-    <col min="9" max="9" width="20" style="163" customWidth="1"/>
-    <col min="10" max="10" width="14.6285714285714" style="163" customWidth="1"/>
-    <col min="11" max="11" width="12.9047619047619" style="163" customWidth="1"/>
-    <col min="12" max="12" width="15.7238095238095" style="163" customWidth="1"/>
-    <col min="13" max="13" width="14.4571428571429" style="163" customWidth="1"/>
-    <col min="14" max="14" width="20.2666666666667" style="163" customWidth="1"/>
-    <col min="15" max="15" width="29.9047619047619" style="163" customWidth="1"/>
-    <col min="16" max="16384" width="8.72380952380952" style="163"/>
+    <col min="1" max="1" width="19.0857142857143" style="171" customWidth="1"/>
+    <col min="2" max="2" width="26.2857142857143" style="171" customWidth="1"/>
+    <col min="3" max="5" width="21.5428571428571" style="171" customWidth="1"/>
+    <col min="6" max="6" width="22.1809523809524" style="171" customWidth="1"/>
+    <col min="7" max="7" width="19.7238095238095" style="171" customWidth="1"/>
+    <col min="8" max="8" width="15" style="171" customWidth="1"/>
+    <col min="9" max="9" width="20" style="171" customWidth="1"/>
+    <col min="10" max="10" width="14.6285714285714" style="171" customWidth="1"/>
+    <col min="11" max="11" width="12.9047619047619" style="171" customWidth="1"/>
+    <col min="12" max="12" width="15.7238095238095" style="171" customWidth="1"/>
+    <col min="13" max="13" width="14.4571428571429" style="171" customWidth="1"/>
+    <col min="14" max="14" width="20.2666666666667" style="171" customWidth="1"/>
+    <col min="15" max="15" width="29.9047619047619" style="171" customWidth="1"/>
+    <col min="16" max="16384" width="8.72380952380952" style="171"/>
   </cols>
   <sheetData>
-    <row r="2" s="163" customFormat="1" ht="21" spans="1:7">
-      <c r="A2" s="164" t="s">
+    <row r="2" s="171" customFormat="1" ht="21" spans="1:7">
+      <c r="A2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-    </row>
-    <row r="4" s="163" customFormat="1" ht="150" spans="1:14">
-      <c r="A4" s="165" t="s">
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+    </row>
+    <row r="4" s="171" customFormat="1" ht="150" spans="1:14">
+      <c r="A4" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-    </row>
-    <row r="5" s="163" customFormat="1" spans="2:14">
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+    </row>
+    <row r="5" s="171" customFormat="1" spans="2:14">
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3656,7 +3674,7 @@
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4820,184 +4838,183 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="40" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="40" customWidth="1"/>
-    <col min="3" max="3" width="60" style="40" customWidth="1"/>
-    <col min="4" max="4" width="54.8571428571429" style="40" customWidth="1"/>
-    <col min="5" max="5" width="25" style="40" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="18.7142857142857" style="46" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="46" customWidth="1"/>
+    <col min="3" max="3" width="60" style="46" customWidth="1"/>
+    <col min="4" max="4" width="54.8571428571429" style="46" customWidth="1"/>
+    <col min="5" max="5" width="25" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" spans="1:7">
-      <c r="A1" s="127" t="s">
+    <row r="1" s="46" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" s="40" customFormat="1" spans="1:7">
-      <c r="A2" s="127" t="s">
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+    </row>
+    <row r="2" s="46" customFormat="1" spans="1:7">
+      <c r="A2" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:6">
-      <c r="A6" s="88" t="s">
+    <row r="6" s="46" customFormat="1" spans="1:6">
+      <c r="A6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" s="40" customFormat="1" ht="75" spans="1:6">
-      <c r="A7" s="61">
+      <c r="D6" s="46"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" s="46" customFormat="1" ht="75" spans="1:6">
+      <c r="A7" s="47">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" s="40" customFormat="1" spans="1:6">
-      <c r="A8" s="61">
+      <c r="D7" s="46"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" s="46" customFormat="1" spans="1:5">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" s="40" customFormat="1" spans="1:4">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" s="40" customFormat="1" spans="3:7">
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" s="40" customFormat="1" spans="1:7">
-      <c r="A11" s="88" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" s="46" customFormat="1" spans="1:2">
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
+    </row>
+    <row r="10" s="46" customFormat="1" spans="3:7">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" s="46" customFormat="1" spans="1:7">
+      <c r="A11" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" s="40" customFormat="1" spans="1:7">
-      <c r="A12" s="89">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" s="46" customFormat="1" spans="1:7">
+      <c r="A12" s="95">
         <v>1</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="1:7">
-      <c r="A13" s="71">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" s="46" customFormat="1" spans="1:7">
+      <c r="A13" s="74">
         <v>2</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" s="40" customFormat="1" spans="1:2">
-      <c r="A14" s="71">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" s="46" customFormat="1" spans="1:2">
+      <c r="A14" s="74">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:2">
-      <c r="A15" s="71">
+    <row r="15" s="46" customFormat="1" spans="1:2">
+      <c r="A15" s="74">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:2">
-      <c r="A16" s="71">
+    <row r="16" s="46" customFormat="1" spans="1:2">
+      <c r="A16" s="74">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:2">
-      <c r="A17" s="71">
+    <row r="17" s="46" customFormat="1" spans="1:2">
+      <c r="A17" s="74">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" spans="1:2">
-      <c r="A18" s="71">
+    <row r="18" s="46" customFormat="1" spans="1:2">
+      <c r="A18" s="74">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5005,169 +5022,169 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" s="40" customFormat="1" spans="7:7">
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" s="40" customFormat="1" spans="1:7">
-      <c r="A21" s="157" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+    </row>
+    <row r="20" s="46" customFormat="1" spans="7:7">
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" s="46" customFormat="1" spans="1:7">
+      <c r="A21" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="131" t="s">
+      <c r="D21" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="127" t="s">
+      <c r="E21" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" s="40" customFormat="1" spans="1:7">
-      <c r="A22" s="57">
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" s="46" customFormat="1" spans="1:7">
+      <c r="A22" s="63">
         <v>1</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" s="40" customFormat="1" spans="1:6">
-      <c r="A23" s="61">
+      <c r="E22" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="98"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" s="46" customFormat="1" spans="1:6">
+      <c r="A23" s="47">
         <v>2</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" s="40" customFormat="1" spans="1:6">
-      <c r="A24" s="64">
+      <c r="E23" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" s="46" customFormat="1" spans="1:6">
+      <c r="A24" s="69">
         <v>3</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" s="40" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A25" s="93"/>
-      <c r="B25" s="112" t="s">
+      <c r="E24" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" s="46" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A25" s="99"/>
+      <c r="B25" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="61">
+      <c r="E25" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="47">
         <v>4</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="158">
+      <c r="E26" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="68">
         <v>5</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="159"/>
-    </row>
-    <row r="28" s="40" customFormat="1" spans="1:6">
-      <c r="A28" s="160"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-    </row>
-    <row r="29" s="40" customFormat="1" spans="1:4">
-      <c r="A29" s="45"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" s="40" customFormat="1" spans="1:6">
-      <c r="A30" s="74" t="s">
+      <c r="E27" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" s="46" customFormat="1" spans="1:6">
+      <c r="A28" s="169"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+    </row>
+    <row r="29" s="46" customFormat="1" spans="1:4">
+      <c r="A29" s="50"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="50"/>
+    </row>
+    <row r="30" s="46" customFormat="1" spans="1:6">
+      <c r="A30" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-    </row>
-    <row r="31" s="40" customFormat="1" ht="45" spans="1:6">
-      <c r="A31" s="76">
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A31" s="82">
         <v>6</v>
       </c>
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="133" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -5176,16 +5193,16 @@
       <c r="D31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="76">
+    <row r="32" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="82">
         <v>7</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="133" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5194,16 +5211,16 @@
       <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" s="97" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="76">
+    <row r="33" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="82">
         <v>9</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="133" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -5212,12 +5229,12 @@
       <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="97" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" s="40" customFormat="1" spans="1:6">
+    <row r="34" s="46" customFormat="1" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5225,172 +5242,172 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" s="40" customFormat="1" spans="1:6">
-      <c r="A35" s="78" t="s">
+    <row r="35" s="46" customFormat="1" spans="1:6">
+      <c r="A35" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="79" t="s">
+      <c r="F35" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A36" s="80">
+    <row r="36" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="86">
         <v>10</v>
       </c>
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="C36" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="153"/>
-    </row>
-    <row r="37" s="40" customFormat="1" ht="45" spans="1:6">
+      <c r="E36" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="162"/>
+    </row>
+    <row r="37" s="46" customFormat="1" ht="45" spans="1:6">
       <c r="A37" s="19"/>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="E37" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" s="40" customFormat="1" ht="30" spans="1:6">
+    <row r="38" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A38" s="19"/>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" s="40" customFormat="1" ht="30" spans="1:6">
+    <row r="39" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A39" s="19">
         <v>11</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" s="40" customFormat="1" ht="45" spans="1:6">
+    <row r="40" s="46" customFormat="1" ht="45" spans="1:6">
       <c r="A40" s="19"/>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" s="40" customFormat="1" ht="30" spans="1:6">
+    <row r="41" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A41" s="19"/>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="91" t="s">
+      <c r="E41" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" s="40" customFormat="1" ht="30" spans="1:6">
+    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A42" s="19">
         <v>12</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" s="40" customFormat="1" ht="45" spans="1:6">
+    <row r="43" s="46" customFormat="1" ht="45" spans="1:6">
       <c r="A43" s="19"/>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="E43" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" ht="30" spans="1:6">
       <c r="A44" s="19"/>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="91" t="s">
+      <c r="E44" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="3"/>
@@ -5412,904 +5429,896 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="40" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="40" customWidth="1"/>
-    <col min="3" max="3" width="60" style="40" customWidth="1"/>
-    <col min="4" max="4" width="67" style="40" customWidth="1"/>
-    <col min="5" max="5" width="31.2857142857143" style="40" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="18.7142857142857" style="46" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="46" customWidth="1"/>
+    <col min="3" max="3" width="60" style="46" customWidth="1"/>
+    <col min="4" max="4" width="67" style="46" customWidth="1"/>
+    <col min="5" max="5" width="31.2857142857143" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9.91428571428571" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" spans="1:7">
-      <c r="A1" s="127" t="s">
+    <row r="1" s="46" customFormat="1" spans="1:7">
+      <c r="A1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" s="40" customFormat="1" spans="1:7">
-      <c r="A2" s="127" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" s="46" customFormat="1" spans="1:7">
+      <c r="A2" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" spans="1:6">
-      <c r="A5" s="88" t="s">
+    <row r="5" s="46" customFormat="1" spans="1:6">
+      <c r="A5" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" s="40" customFormat="1" ht="75" spans="1:6">
-      <c r="A6" s="61">
+      <c r="D5" s="46"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" s="46" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" s="40" customFormat="1" spans="1:6">
-      <c r="A7" s="61">
+      <c r="D6" s="46"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" s="46" customFormat="1" spans="1:6">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" s="40" customFormat="1" spans="1:2">
-      <c r="A8" s="61">
+      <c r="C7" s="52"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" s="46" customFormat="1" spans="1:2">
+      <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:7">
-      <c r="A9" s="61">
+    <row r="9" s="46" customFormat="1" spans="1:7">
+      <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" s="40" customFormat="1" spans="1:7">
-      <c r="A10" s="61">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" s="46" customFormat="1" spans="1:7">
+      <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" s="40" customFormat="1" spans="1:7">
-      <c r="A11" s="61">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" s="46" customFormat="1" spans="1:7">
+      <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" s="40" customFormat="1" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="3:7">
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" s="40" customFormat="1" spans="1:7">
-      <c r="A14" s="46" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" s="46" customFormat="1" spans="3:7">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" s="46" customFormat="1" spans="1:7">
+      <c r="A13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" s="40" customFormat="1" spans="1:7">
-      <c r="A15" s="89">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" s="46" customFormat="1" spans="1:7">
+      <c r="A14" s="95">
         <v>1</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B14" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" s="40" customFormat="1" spans="1:7">
-      <c r="A16" s="71">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" s="46" customFormat="1" spans="1:7">
+      <c r="A15" s="74">
         <v>2</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B15" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" s="40" customFormat="1" spans="1:2">
-      <c r="A17" s="71">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" s="46" customFormat="1" spans="1:2">
+      <c r="A16" s="74">
         <v>3</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" s="46" customFormat="1" spans="1:2">
+      <c r="A17" s="74">
+        <v>4</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" s="40" customFormat="1" spans="1:2">
-      <c r="A18" s="71">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" s="46" customFormat="1" spans="1:2">
+      <c r="A18" s="74">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" s="46" customFormat="1" spans="1:2">
+      <c r="A19" s="74">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="46" customFormat="1" spans="1:2">
+      <c r="A20" s="74">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" s="46" customFormat="1" spans="7:7">
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" s="46" customFormat="1" spans="1:7">
+      <c r="A22" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" s="46" customFormat="1" spans="1:7">
+      <c r="A23" s="63">
+        <v>1</v>
+      </c>
+      <c r="B23" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="98"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" s="46" customFormat="1" spans="1:6">
+      <c r="A24" s="47">
+        <v>2</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" s="46" customFormat="1" spans="1:6">
+      <c r="A25" s="69">
+        <v>3</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="99"/>
+      <c r="B26" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="101">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" s="40" customFormat="1" spans="1:2">
-      <c r="A19" s="71">
+      <c r="B27" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="141"/>
+      <c r="B28" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" s="46" customFormat="1" spans="1:6">
+      <c r="A29" s="47">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" s="40" customFormat="1" spans="1:2">
-      <c r="A20" s="71">
+      <c r="B29" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="47"/>
+      <c r="B30" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" s="46" customFormat="1" spans="1:6">
+      <c r="A31" s="141">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" s="40" customFormat="1" spans="1:2">
-      <c r="A21" s="71">
+      <c r="B31" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="143"/>
+    </row>
+    <row r="32" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="47"/>
+      <c r="B32" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="56"/>
+    </row>
+    <row r="33" s="46" customFormat="1" spans="1:4">
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+    </row>
+    <row r="34" s="46" customFormat="1" spans="1:4">
+      <c r="A34" s="144"/>
+      <c r="B34" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+    </row>
+    <row r="35" s="46" customFormat="1" spans="1:6">
+      <c r="A35" s="47"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="47">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" s="40" customFormat="1" spans="7:7">
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" s="40" customFormat="1" spans="1:7">
-      <c r="A23" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="131" t="s">
+      <c r="B36" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="56"/>
+    </row>
+    <row r="37" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="47">
+        <v>8</v>
+      </c>
+      <c r="B37" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="56"/>
+    </row>
+    <row r="38" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="47">
+        <v>9</v>
+      </c>
+      <c r="B38" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="56"/>
+    </row>
+    <row r="39" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="152"/>
+      <c r="B39" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A40" s="153">
+        <v>10</v>
+      </c>
+      <c r="B40" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="56"/>
+    </row>
+    <row r="41" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A41" s="154"/>
+      <c r="B41" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="56"/>
+    </row>
+    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="47">
+        <v>11</v>
+      </c>
+      <c r="B42" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A43" s="47">
+        <v>12</v>
+      </c>
+      <c r="B43" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A44" s="47">
+        <v>13</v>
+      </c>
+      <c r="B44" s="150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="47">
+        <v>14</v>
+      </c>
+      <c r="B45" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A46" s="47">
+        <v>15</v>
+      </c>
+      <c r="B46" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="155">
+        <v>16</v>
+      </c>
+      <c r="B47" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A48" s="155">
+        <v>17</v>
+      </c>
+      <c r="B48" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="155">
+        <v>18</v>
+      </c>
+      <c r="B49" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A50" s="155">
+        <v>19</v>
+      </c>
+      <c r="B50" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" s="46" customFormat="1" spans="1:6">
+      <c r="A51" s="156"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+    </row>
+    <row r="52" s="46" customFormat="1" spans="1:6">
+      <c r="A52" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+    </row>
+    <row r="53" s="46" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A53" s="82">
+        <v>22</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" s="46" customFormat="1" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" s="46" customFormat="1" spans="1:6">
+      <c r="A55" s="159" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C55" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="127" t="s">
+      <c r="D55" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F55" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" s="40" customFormat="1" spans="1:7">
-      <c r="A24" s="57">
-        <v>1</v>
-      </c>
-      <c r="B24" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="92"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" s="40" customFormat="1" spans="1:6">
-      <c r="A25" s="61">
-        <v>2</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" s="40" customFormat="1" spans="1:6">
-      <c r="A26" s="64">
-        <v>3</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="93"/>
-      <c r="B27" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="95">
-        <v>4</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="133"/>
-      <c r="B29" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" s="40" customFormat="1" spans="1:6">
-      <c r="A30" s="61">
-        <v>5</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="31" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="61"/>
-      <c r="B31" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" s="40" customFormat="1" spans="1:6">
-      <c r="A32" s="133">
-        <v>6</v>
-      </c>
-      <c r="B32" s="134" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="135"/>
-    </row>
-    <row r="33" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="61"/>
-      <c r="B33" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="50"/>
-    </row>
-    <row r="34" s="40" customFormat="1" spans="1:4">
-      <c r="A34" s="136"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-    </row>
-    <row r="35" s="40" customFormat="1" spans="1:4">
-      <c r="A35" s="136"/>
-      <c r="B35" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-    </row>
-    <row r="36" s="40" customFormat="1" spans="1:6">
-      <c r="A36" s="61"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="61">
-        <v>7</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="143" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="61">
-        <v>8</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="143" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="143" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="50"/>
-    </row>
-    <row r="39" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A39" s="61">
-        <v>9</v>
-      </c>
-      <c r="B39" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="50"/>
-    </row>
-    <row r="40" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A40" s="144"/>
-      <c r="B40" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="50"/>
-    </row>
-    <row r="41" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A41" s="145">
-        <v>10</v>
-      </c>
-      <c r="B41" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="143" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="146"/>
-      <c r="B42" s="142" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="102" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="50"/>
-    </row>
-    <row r="43" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="61">
-        <v>11</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="143" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="50"/>
-    </row>
-    <row r="44" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="61">
-        <v>12</v>
-      </c>
-      <c r="B44" s="142" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="50"/>
-    </row>
-    <row r="45" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="61">
-        <v>13</v>
-      </c>
-      <c r="B45" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="46" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="61">
-        <v>14</v>
-      </c>
-      <c r="B46" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="143" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="50"/>
-    </row>
-    <row r="47" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A47" s="61">
-        <v>15</v>
-      </c>
-      <c r="B47" s="142" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="50"/>
-    </row>
-    <row r="48" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="147">
-        <v>16</v>
-      </c>
-      <c r="B48" s="143" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="143" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="50"/>
-    </row>
-    <row r="49" s="40" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="147">
-        <v>17</v>
-      </c>
-      <c r="B49" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="143" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="50"/>
-    </row>
-    <row r="50" s="40" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="147">
-        <v>18</v>
-      </c>
-      <c r="B50" s="142" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="50"/>
-    </row>
-    <row r="51" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="147">
-        <v>19</v>
-      </c>
-      <c r="B51" s="142" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="50"/>
-    </row>
-    <row r="52" s="40" customFormat="1" spans="1:6">
-      <c r="A52" s="148"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-    </row>
-    <row r="53" s="40" customFormat="1" spans="1:6">
-      <c r="A53" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-    </row>
-    <row r="54" s="40" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A54" s="76">
-        <v>22</v>
-      </c>
-      <c r="B54" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" s="40" customFormat="1" spans="1:6">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" s="40" customFormat="1" spans="1:6">
-      <c r="A56" s="151" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="79" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A57" s="80">
+    </row>
+    <row r="56" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A56" s="86">
         <v>23</v>
       </c>
-      <c r="B57" s="152" t="s">
+      <c r="B56" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="82" t="s">
+      <c r="C56" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D56" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="153"/>
-    </row>
-    <row r="58" s="40" customFormat="1" ht="45" spans="1:6">
+      <c r="E56" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="162"/>
+    </row>
+    <row r="57" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A57" s="19"/>
+      <c r="B57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A58" s="19"/>
       <c r="B58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A59" s="19"/>
-      <c r="B59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" s="40" customFormat="1" spans="1:6">
-      <c r="A60" s="154"/>
+    <row r="59" s="46" customFormat="1" spans="1:6">
+      <c r="A59" s="163"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" s="46" customFormat="1" spans="1:6">
+      <c r="A60" s="163"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="126"/>
+      <c r="C60" s="134"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" s="40" customFormat="1" spans="1:6">
-      <c r="A61" s="154"/>
+    <row r="61" s="46" customFormat="1" spans="1:6">
+      <c r="A61" s="163"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="126"/>
+      <c r="C61" s="134"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" s="40" customFormat="1" spans="1:6">
-      <c r="A62" s="154"/>
+    <row r="62" s="46" customFormat="1" spans="1:6">
+      <c r="A62" s="163"/>
       <c r="B62" s="24"/>
-      <c r="C62" s="126"/>
+      <c r="C62" s="134"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" s="40" customFormat="1" spans="1:6">
-      <c r="A63" s="154"/>
+    <row r="63" s="46" customFormat="1" spans="1:6">
+      <c r="A63" s="163"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="126"/>
+      <c r="C63" s="134"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" s="40" customFormat="1" spans="1:6">
-      <c r="A64" s="154"/>
+    <row r="64" s="46" customFormat="1" spans="1:6">
+      <c r="A64" s="163"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="126"/>
+      <c r="C64" s="134"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" s="40" customFormat="1" spans="1:6">
-      <c r="A65" s="154"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6321,316 +6330,320 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714" style="100" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="100" customWidth="1"/>
-    <col min="3" max="3" width="63.8571428571429" style="100" customWidth="1"/>
-    <col min="4" max="4" width="67" style="100" customWidth="1"/>
-    <col min="5" max="5" width="31.2857142857143" style="100" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="100" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="100"/>
+    <col min="1" max="1" width="11.4285714285714" style="105" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="105" customWidth="1"/>
+    <col min="3" max="3" width="63.8571428571429" style="105" customWidth="1"/>
+    <col min="4" max="4" width="67" style="105" customWidth="1"/>
+    <col min="5" max="5" width="31.2857142857143" style="105" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="105" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" s="100" customFormat="1" spans="1:7">
-      <c r="A1" s="101" t="s">
+    <row r="1" s="105" customFormat="1" spans="1:7">
+      <c r="A1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" s="100" customFormat="1" spans="1:7">
-      <c r="A2" s="101" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" s="105" customFormat="1" spans="1:7">
+      <c r="A2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" s="100" customFormat="1" spans="1:2">
-      <c r="A3" s="101" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" s="105" customFormat="1" spans="1:2">
+      <c r="A3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="100" customFormat="1" spans="1:6">
-      <c r="A5" s="103" t="s">
+    <row r="5" s="105" customFormat="1" spans="1:6">
+      <c r="A5" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-    </row>
-    <row r="6" s="100" customFormat="1" ht="75" spans="1:6">
-      <c r="A6" s="66"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="29" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+    </row>
+    <row r="6" s="105" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="49"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" s="100" customFormat="1" spans="1:6">
-      <c r="A7" s="66"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" s="100" customFormat="1" spans="3:7">
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" s="100" customFormat="1" spans="1:7">
-      <c r="A9" s="105" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+    </row>
+    <row r="7" s="105" customFormat="1" spans="1:6">
+      <c r="A7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+    </row>
+    <row r="8" s="105" customFormat="1" spans="3:7">
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" s="105" customFormat="1" spans="1:7">
+      <c r="A9" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" s="100" customFormat="1" spans="2:7">
-      <c r="B10" s="100" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+    </row>
+    <row r="10" s="105" customFormat="1" spans="1:7">
+      <c r="A10" s="112">
+        <v>1</v>
+      </c>
+      <c r="B10" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" s="100" customFormat="1" spans="7:7">
-      <c r="G11" s="54"/>
-    </row>
-    <row r="12" s="100" customFormat="1" spans="7:7">
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" s="100" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="106" t="s">
+      <c r="G10" s="110"/>
+    </row>
+    <row r="11" s="105" customFormat="1" spans="7:7">
+      <c r="G11" s="110"/>
+    </row>
+    <row r="12" s="105" customFormat="1" spans="7:7">
+      <c r="G12" s="110"/>
+    </row>
+    <row r="13" s="105" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="54"/>
-    </row>
-    <row r="14" s="100" customFormat="1" spans="1:7">
-      <c r="A14" s="43">
+      <c r="G13" s="110"/>
+    </row>
+    <row r="14" s="105" customFormat="1" spans="1:7">
+      <c r="A14" s="114">
         <v>1</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="54"/>
-    </row>
-    <row r="15" s="100" customFormat="1" spans="1:6">
-      <c r="A15" s="44">
+      <c r="E14" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="117"/>
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" s="105" customFormat="1" spans="1:6">
+      <c r="A15" s="79">
         <v>2</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="48"/>
-    </row>
-    <row r="16" s="100" customFormat="1" spans="1:6">
-      <c r="A16" s="111">
+      <c r="E15" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" s="105" customFormat="1" spans="1:6">
+      <c r="A16" s="119">
         <v>3</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="48"/>
-    </row>
-    <row r="17" s="100" customFormat="1" spans="1:6">
-      <c r="A17" s="113">
+      <c r="E16" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" s="105" customFormat="1" spans="1:6">
+      <c r="A17" s="121">
         <v>4</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="48"/>
-    </row>
-    <row r="18" s="100" customFormat="1" ht="30" spans="1:6">
-      <c r="A18" s="111">
+      <c r="E17" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" s="105" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="119">
         <v>5</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="48"/>
-    </row>
-    <row r="19" s="100" customFormat="1" spans="1:6">
-      <c r="A19" s="44">
+      <c r="E18" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" s="105" customFormat="1" spans="1:6">
+      <c r="A19" s="79">
         <v>6</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" s="100" customFormat="1" ht="30" spans="1:5">
-      <c r="A20" s="114">
+      <c r="E19" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" s="105" customFormat="1" ht="30" spans="1:5">
+      <c r="A20" s="122">
         <v>7</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="108" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" s="100" customFormat="1" spans="1:6">
-      <c r="A21" s="116">
+      <c r="E20" s="116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" s="105" customFormat="1" spans="1:6">
+      <c r="A21" s="124">
         <v>8</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="119"/>
-    </row>
-    <row r="22" s="100" customFormat="1" spans="1:4">
-      <c r="A22" s="120"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" s="100" customFormat="1" spans="1:4">
-      <c r="A23" s="120"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="54"/>
-    </row>
-    <row r="24" s="100" customFormat="1" spans="1:6">
-      <c r="A24" s="122" t="s">
+      <c r="E21" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="127"/>
+    </row>
+    <row r="22" s="105" customFormat="1" spans="1:4">
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="110"/>
+    </row>
+    <row r="23" s="105" customFormat="1" spans="1:4">
+      <c r="A23" s="128"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="110"/>
+    </row>
+    <row r="24" s="105" customFormat="1" spans="1:6">
+      <c r="A24" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-    </row>
-    <row r="25" s="100" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A25" s="124">
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+    </row>
+    <row r="25" s="105" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A25" s="132">
         <v>22</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="133" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6639,12 +6652,12 @@
       <c r="D25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="116" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" s="100" customFormat="1" spans="1:6">
+    <row r="26" s="105" customFormat="1" spans="1:6">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -6652,50 +6665,50 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" s="100" customFormat="1" spans="1:6">
-      <c r="A27" s="34"/>
+    <row r="27" s="105" customFormat="1" spans="1:6">
+      <c r="A27" s="38"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="126"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" s="100" customFormat="1" spans="1:6">
-      <c r="A28" s="34"/>
+    <row r="28" s="105" customFormat="1" spans="1:6">
+      <c r="A28" s="38"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="126"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" s="100" customFormat="1" spans="1:6">
-      <c r="A29" s="34"/>
+    <row r="29" s="105" customFormat="1" spans="1:6">
+      <c r="A29" s="38"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="126"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" s="100" customFormat="1" spans="1:6">
-      <c r="A30" s="34"/>
+    <row r="30" s="105" customFormat="1" spans="1:6">
+      <c r="A30" s="38"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="126"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" s="100" customFormat="1" spans="1:6">
-      <c r="A31" s="34"/>
+    <row r="31" s="105" customFormat="1" spans="1:6">
+      <c r="A31" s="38"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="126"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" s="100" customFormat="1" spans="1:6">
-      <c r="A32" s="34"/>
+    <row r="32" s="105" customFormat="1" spans="1:6">
+      <c r="A32" s="38"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="126"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -6717,389 +6730,386 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="40" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="40" customWidth="1"/>
-    <col min="3" max="3" width="60" style="40" customWidth="1"/>
-    <col min="4" max="4" width="57.4285714285714" style="40" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" style="40" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="18.7142857142857" style="46" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="46" customWidth="1"/>
+    <col min="3" max="3" width="60" style="46" customWidth="1"/>
+    <col min="4" max="4" width="57.4285714285714" style="46" customWidth="1"/>
+    <col min="5" max="5" width="35.7142857142857" style="46" customWidth="1"/>
+    <col min="6" max="6" width="12.8571428571429" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="46" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" s="40" customFormat="1" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" s="46" customFormat="1" spans="1:7">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" spans="1:6">
-      <c r="A5" s="87" t="s">
+    <row r="5" s="46" customFormat="1" spans="1:6">
+      <c r="A5" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" s="40" customFormat="1" ht="75" spans="1:6">
-      <c r="A6" s="61">
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" s="46" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" s="40" customFormat="1" spans="1:6">
-      <c r="A7" s="61">
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" s="46" customFormat="1" spans="1:6">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" s="40" customFormat="1" spans="3:7">
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" s="40" customFormat="1" spans="3:7">
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" s="40" customFormat="1" spans="1:7">
-      <c r="A10" s="87" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" s="46" customFormat="1" spans="3:7">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" s="46" customFormat="1" spans="3:7">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" s="46" customFormat="1" spans="1:7">
+      <c r="A10" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" s="40" customFormat="1" spans="1:7">
-      <c r="A11" s="89">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" s="46" customFormat="1" spans="1:7">
+      <c r="A11" s="95">
         <v>1</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" s="40" customFormat="1" spans="1:7">
-      <c r="A12" s="71">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" s="46" customFormat="1" spans="1:7">
+      <c r="A12" s="74">
         <v>2</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="1:2">
-      <c r="A13" s="71">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" s="46" customFormat="1" spans="1:2">
+      <c r="A13" s="74">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" spans="1:2">
-      <c r="A14" s="71">
+    <row r="14" s="46" customFormat="1" spans="1:2">
+      <c r="A14" s="74">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:2">
-      <c r="A15" s="71">
+    <row r="15" s="46" customFormat="1" spans="1:2">
+      <c r="A15" s="74">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:2">
-      <c r="A16" s="71">
+    <row r="16" s="46" customFormat="1" spans="1:2">
+      <c r="A16" s="74">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:2">
-      <c r="A17" s="71">
+    <row r="17" s="46" customFormat="1" spans="1:2">
+      <c r="A17" s="74">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" spans="7:7">
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" s="40" customFormat="1" spans="1:7">
-      <c r="A19" s="55" t="s">
+    <row r="18" s="46" customFormat="1" spans="7:7">
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" s="46" customFormat="1" spans="1:7">
+      <c r="A19" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" s="40" customFormat="1" spans="1:7">
-      <c r="A20" s="57">
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" s="46" customFormat="1" spans="1:7">
+      <c r="A20" s="63">
         <v>1</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" s="40" customFormat="1" spans="1:6">
-      <c r="A21" s="61">
+      <c r="E20" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="98"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" s="46" customFormat="1" spans="1:6">
+      <c r="A21" s="47">
         <v>2</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" s="40" customFormat="1" spans="1:6">
-      <c r="A22" s="64">
+      <c r="E21" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" s="46" customFormat="1" spans="1:6">
+      <c r="A22" s="69">
         <v>3</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A23" s="93"/>
-      <c r="B23" s="65" t="s">
+      <c r="E22" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="99"/>
+      <c r="B23" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="94"/>
-    </row>
-    <row r="24" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="95">
+      <c r="E23" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="100"/>
+    </row>
+    <row r="24" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="101">
         <v>4</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A25" s="95">
+      <c r="E24" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="101">
         <v>5</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" s="40" customFormat="1" spans="1:4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="45"/>
-    </row>
-    <row r="27" s="40" customFormat="1" spans="1:6">
-      <c r="A27" s="74" t="s">
+      <c r="E25" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" s="46" customFormat="1" spans="1:4">
+      <c r="A26" s="50"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" s="46" customFormat="1" spans="1:6">
+      <c r="A27" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-    </row>
-    <row r="28" s="40" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A28" s="76">
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+    </row>
+    <row r="28" s="46" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A28" s="82">
         <v>6</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="76">
+    <row r="29" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="82">
         <v>7</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="97" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" s="40" customFormat="1" spans="1:6">
-      <c r="A30" s="76">
+    <row r="30" s="46" customFormat="1" spans="1:6">
+      <c r="A30" s="82">
         <v>8</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="91"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" s="40" customFormat="1" spans="1:6">
+    <row r="31" s="46" customFormat="1" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7107,7 +7117,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" s="40" customFormat="1" spans="1:6">
+    <row r="32" s="46" customFormat="1" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7115,122 +7125,122 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" s="40" customFormat="1" spans="1:6">
-      <c r="A33" s="78" t="s">
+    <row r="33" s="46" customFormat="1" spans="1:6">
+      <c r="A33" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="80">
+    <row r="34" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="86">
         <v>9</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="80"/>
-    </row>
-    <row r="35" s="40" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="E34" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="86"/>
+    </row>
+    <row r="35" s="46" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A35" s="19"/>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="91" t="s">
+      <c r="E35" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" s="40" customFormat="1" ht="21" customHeight="1" spans="1:6">
+    <row r="36" s="46" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A36" s="19"/>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" s="40" customFormat="1" ht="30" spans="1:6">
+    <row r="37" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A37" s="19">
         <v>10</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="E37" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="19"/>
     </row>
     <row r="38" ht="35" customHeight="1" spans="1:6">
       <c r="A38" s="19"/>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="19"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:6">
       <c r="A39" s="19"/>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="19"/>
@@ -7239,48 +7249,48 @@
       <c r="A40" s="19">
         <v>11</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="19"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:6">
       <c r="A41" s="19"/>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="91" t="s">
+      <c r="E41" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="19"/>
     </row>
     <row r="42" ht="30" spans="1:6">
       <c r="A42" s="19"/>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="19"/>
@@ -7305,214 +7315,215 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="40" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="40" customWidth="1"/>
-    <col min="3" max="3" width="62.5714285714286" style="40" customWidth="1"/>
-    <col min="4" max="4" width="60.2857142857143" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23" style="40" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="18.7142857142857" style="46" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="46" customWidth="1"/>
+    <col min="3" max="3" width="62.5714285714286" style="46" customWidth="1"/>
+    <col min="4" max="4" width="60.2857142857143" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23" style="46" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="46" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" s="40" customFormat="1" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" s="46" customFormat="1" spans="1:7">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" spans="1:6">
-      <c r="A5" s="41" t="s">
+    <row r="5" s="46" customFormat="1" spans="1:6">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" s="40" customFormat="1" ht="75" spans="1:6">
-      <c r="A6" s="42">
+      <c r="D5" s="46"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" s="46" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="53">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" s="40" customFormat="1" spans="1:6">
-      <c r="A7" s="42">
+      <c r="D6" s="46"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" s="46" customFormat="1" spans="1:6">
+      <c r="A7" s="53">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" s="40" customFormat="1" spans="1:2">
-      <c r="A8" s="42">
+      <c r="C7" s="52"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" s="46" customFormat="1" spans="1:2">
+      <c r="A8" s="53">
         <v>3</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:7">
-      <c r="A9" s="42">
+    <row r="9" s="46" customFormat="1" spans="1:7">
+      <c r="A9" s="53">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" s="40" customFormat="1" spans="1:7">
-      <c r="A10" s="42">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" s="46" customFormat="1" spans="1:7">
+      <c r="A10" s="53">
         <v>5</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" s="40" customFormat="1" spans="3:7">
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" s="40" customFormat="1" spans="1:7">
-      <c r="A12" s="41" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" s="46" customFormat="1" spans="3:7">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" s="46" customFormat="1" spans="1:7">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="1:7">
-      <c r="A13" s="51">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" s="46" customFormat="1" spans="1:7">
+      <c r="A13" s="57">
         <v>1</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" s="40" customFormat="1" spans="1:7">
-      <c r="A14" s="53">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" s="46" customFormat="1" spans="1:7">
+      <c r="A14" s="59">
         <v>2</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" s="40" customFormat="1" spans="1:2">
-      <c r="A15" s="53">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" s="46" customFormat="1" spans="1:2">
+      <c r="A15" s="59">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:2">
-      <c r="A16" s="53">
+    <row r="16" s="46" customFormat="1" spans="1:2">
+      <c r="A16" s="59">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:2">
-      <c r="A17" s="53">
+    <row r="17" s="46" customFormat="1" spans="1:2">
+      <c r="A17" s="59">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" s="40" customFormat="1" spans="1:2">
-      <c r="A18" s="53">
+    <row r="18" s="46" customFormat="1" spans="1:2">
+      <c r="A18" s="59">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" s="40" customFormat="1" spans="1:2">
-      <c r="A19" s="53">
+    <row r="19" s="46" customFormat="1" spans="1:2">
+      <c r="A19" s="59">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7520,285 +7531,283 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-    </row>
-    <row r="21" s="40" customFormat="1" spans="7:7">
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" s="40" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="55" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+    </row>
+    <row r="21" s="46" customFormat="1" spans="7:7">
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" s="40" customFormat="1" spans="1:7">
-      <c r="A23" s="57">
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" s="46" customFormat="1" spans="1:7">
+      <c r="A23" s="63">
         <v>1</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" s="40" customFormat="1" spans="1:6">
-      <c r="A24" s="61">
+      <c r="E23" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" s="46" customFormat="1" spans="1:6">
+      <c r="A24" s="47">
         <v>2</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="63"/>
-    </row>
-    <row r="25" s="40" customFormat="1" spans="1:6">
-      <c r="A25" s="64">
+      <c r="E24" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" s="46" customFormat="1" spans="1:6">
+      <c r="A25" s="69">
         <v>3</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="63"/>
-    </row>
-    <row r="26" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="64">
+      <c r="E25" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="69">
         <v>4</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="68"/>
-    </row>
-    <row r="27" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70" t="s">
+      <c r="E26" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="71"/>
+    </row>
+    <row r="27" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="63"/>
-    </row>
-    <row r="28" s="40" customFormat="1" spans="1:6">
-      <c r="A28" s="64">
+      <c r="E27" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="68"/>
+    </row>
+    <row r="28" s="46" customFormat="1" spans="1:6">
+      <c r="A28" s="69">
         <v>6</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="63"/>
-    </row>
-    <row r="29" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="64">
+      <c r="E28" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="69">
         <v>7</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="E29" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="71"/>
-    </row>
-    <row r="30" s="40" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A30" s="64">
+      <c r="E29" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="74"/>
+    </row>
+    <row r="30" s="46" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A30" s="69">
         <v>8</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="75" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" s="40" customFormat="1" spans="1:6">
-      <c r="A31" s="64"/>
-      <c r="B31" s="73" t="s">
+    <row r="31" s="46" customFormat="1" spans="1:6">
+      <c r="A31" s="69"/>
+      <c r="B31" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="71"/>
-    </row>
-    <row r="32" s="40" customFormat="1" spans="1:6">
-      <c r="A32" s="64">
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+    </row>
+    <row r="32" s="46" customFormat="1" spans="1:6">
+      <c r="A32" s="69">
         <v>9</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="71"/>
-    </row>
-    <row r="33" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="64">
+      <c r="E32" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="74"/>
+    </row>
+    <row r="33" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="69">
         <v>10</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="71"/>
-    </row>
-    <row r="34" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="64">
+      <c r="E33" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="74"/>
+    </row>
+    <row r="34" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="69">
         <v>11</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="71"/>
-    </row>
-    <row r="35" s="40" customFormat="1" ht="45" spans="1:6">
-      <c r="A35" s="64">
+      <c r="E34" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="74"/>
+    </row>
+    <row r="35" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A35" s="69">
         <v>12</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="71"/>
-    </row>
-    <row r="36" s="40" customFormat="1" spans="1:6">
-      <c r="A36" s="44"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-    </row>
-    <row r="37" s="40" customFormat="1" spans="1:6">
-      <c r="A37" s="74" t="s">
+      <c r="E35" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" s="46" customFormat="1" spans="1:6">
+      <c r="A36" s="79"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+    </row>
+    <row r="37" s="46" customFormat="1" spans="1:6">
+      <c r="A37" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-    </row>
-    <row r="38" s="40" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A38" s="76">
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+    </row>
+    <row r="38" s="46" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A38" s="82">
         <v>13</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="83" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -7807,12 +7816,12 @@
       <c r="D38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="65" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" s="40" customFormat="1" spans="1:6">
+    <row r="39" s="46" customFormat="1" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7820,7 +7829,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" s="40" customFormat="1" spans="1:6">
+    <row r="40" s="46" customFormat="1" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7828,79 +7837,80 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" s="40" customFormat="1" spans="1:6">
-      <c r="A41" s="78" t="s">
+    <row r="41" s="46" customFormat="1" spans="1:6">
+      <c r="A41" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" s="40" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="80">
+    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="86">
         <v>14</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="83"/>
-    </row>
-    <row r="43" s="40" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="E42" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="89"/>
+    </row>
+    <row r="43" s="46" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A43" s="19"/>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="86"/>
-    </row>
-    <row r="44" s="40" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="E43" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="92"/>
+    </row>
+    <row r="44" s="46" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A44" s="19"/>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="86"/>
+      <c r="E44" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A42:A44"/>
@@ -7913,10 +7923,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -7963,8 +7973,12 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" s="24" customFormat="1" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -7972,49 +7986,45 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" s="24" customFormat="1" spans="1:7">
-      <c r="A4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" s="24" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="29" t="s">
-        <v>21</v>
-      </c>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:7">
-      <c r="A6" s="4"/>
+    <row r="6" s="24" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" s="24" customFormat="1" spans="1:7">
-      <c r="A7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -8022,285 +8032,298 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" s="24" customFormat="1" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="30" t="s">
+    <row r="9" s="24" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" s="24" customFormat="1" spans="1:7">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="31">
-        <v>1</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="31">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>267</v>
+      <c r="A12" s="33">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="31">
-        <v>3</v>
+    <row r="13" s="24" customFormat="1" spans="1:7">
+      <c r="A13" s="33">
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" s="24" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="31">
-        <v>4</v>
+    <row r="14" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="33">
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" s="24" customFormat="1" spans="1:7">
-      <c r="A15" s="31">
-        <v>5</v>
+    <row r="15" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="33">
+        <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" s="24" customFormat="1" spans="1:7">
-      <c r="A16" s="31">
-        <v>6</v>
+      <c r="A16" s="33">
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" s="24" customFormat="1" spans="1:7">
-      <c r="A17" s="31">
-        <v>7</v>
+      <c r="A17" s="33">
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" s="24" customFormat="1" spans="1:7">
-      <c r="A18" s="31">
-        <v>8</v>
+      <c r="A18" s="33">
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" s="24" customFormat="1" spans="1:1">
-      <c r="A19" s="34"/>
+    <row r="19" s="24" customFormat="1" spans="1:7">
+      <c r="A19" s="33">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" s="24" customFormat="1" spans="1:1">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
+      <c r="A20" s="38"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:1">
+      <c r="A21" s="38"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:6">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E22" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F22" s="42" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="22" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A22" s="34"/>
-      <c r="B22" s="39" t="s">
+    <row r="23" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="38"/>
+      <c r="B23" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C23" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D23" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A23" s="34"/>
-      <c r="B23" s="39" t="s">
+      <c r="E23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="38"/>
+      <c r="B24" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C24" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D24" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="24" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="34"/>
-      <c r="B24" s="39" t="s">
+    <row r="25" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="38"/>
+      <c r="B25" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C25" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D25" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E25" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>251</v>
       </c>
     </row>
-    <row r="25" s="24" customFormat="1" spans="1:1">
-      <c r="A25" s="34"/>
-    </row>
     <row r="26" s="24" customFormat="1" spans="1:1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="38"/>
+    </row>
+    <row r="27" s="24" customFormat="1" spans="1:1">
+      <c r="A27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8310,10 +8333,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8360,8 +8383,12 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" s="24" customFormat="1" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -8369,49 +8396,45 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" s="24" customFormat="1" spans="1:7">
-      <c r="A4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" s="24" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="29" t="s">
-        <v>21</v>
-      </c>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:7">
-      <c r="A6" s="4"/>
+    <row r="6" s="24" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" s="24" customFormat="1" spans="1:7">
-      <c r="A7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -8419,281 +8442,294 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" s="24" customFormat="1" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="30" t="s">
+    <row r="9" s="24" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="24" customFormat="1" spans="1:7">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="31">
-        <v>1</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="31">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>305</v>
+      <c r="A12" s="33">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="31">
-        <v>3</v>
+    <row r="13" s="24" customFormat="1" spans="1:7">
+      <c r="A13" s="33">
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" s="24" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="31">
-        <v>4</v>
+    <row r="14" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="33">
+        <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" s="24" customFormat="1" spans="1:7">
-      <c r="A15" s="31">
-        <v>5</v>
+    <row r="15" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="33">
+        <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="31">
-        <v>6</v>
+    <row r="16" s="24" customFormat="1" spans="1:7">
+      <c r="A16" s="33">
+        <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:7">
-      <c r="A17" s="31">
-        <v>7</v>
+    <row r="17" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="33">
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" s="24" customFormat="1" spans="1:7">
-      <c r="A18" s="31">
-        <v>8</v>
+      <c r="A18" s="33">
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" s="24" customFormat="1" spans="1:1">
-      <c r="A19" s="34"/>
+    <row r="19" s="24" customFormat="1" spans="1:7">
+      <c r="A19" s="33">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" s="24" customFormat="1" spans="1:1">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
+      <c r="A20" s="38"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:1">
+      <c r="A21" s="38"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:6">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E22" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F22" s="41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="22" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A22" s="34"/>
-      <c r="B22" s="39" t="s">
+    <row r="23" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="38"/>
+      <c r="B23" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C23" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D23" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A23" s="34"/>
-      <c r="B23" s="39" t="s">
+      <c r="E23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="38"/>
+      <c r="B24" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C24" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D24" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>252</v>
       </c>
     </row>
-    <row r="24" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="34"/>
-      <c r="B24" s="39" t="s">
+    <row r="25" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="38"/>
+      <c r="B25" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C25" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D25" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:1">
-      <c r="A25" s="34"/>
+      <c r="E25" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" s="24" customFormat="1" spans="1:1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="38"/>
+    </row>
+    <row r="27" s="24" customFormat="1" spans="1:1">
+      <c r="A27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8703,10 +8739,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8753,8 +8789,12 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" s="24" customFormat="1" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -8762,49 +8802,44 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" s="24" customFormat="1" spans="1:7">
-      <c r="A4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" s="24" customFormat="1" ht="105" spans="1:7">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="29" t="s">
-        <v>21</v>
-      </c>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:7">
-      <c r="A6" s="4"/>
+    <row r="6" s="24" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" s="24" customFormat="1" spans="1:7">
-      <c r="A7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -8812,168 +8847,183 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" s="24" customFormat="1" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="30" t="s">
+    <row r="9" s="24" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" s="24" customFormat="1" spans="1:7">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="31">
-        <v>1</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="31">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>325</v>
+      <c r="A12" s="33">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>322</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" s="24" customFormat="1" spans="1:7">
-      <c r="A13" s="31">
-        <v>3</v>
+      <c r="A13" s="33">
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" s="24" customFormat="1" spans="1:1">
-      <c r="A14" s="34"/>
+    <row r="14" s="24" customFormat="1" spans="1:7">
+      <c r="A14" s="33">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" s="24" customFormat="1" spans="1:1">
-      <c r="A15" s="34"/>
-    </row>
-    <row r="16" s="24" customFormat="1" spans="1:6">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
+      <c r="A15" s="38"/>
+    </row>
+    <row r="16" s="24" customFormat="1" spans="1:1">
+      <c r="A16" s="38"/>
+    </row>
+    <row r="17" s="24" customFormat="1" spans="1:6">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E17" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F17" s="42" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A17" s="34"/>
-      <c r="B17" s="39" t="s">
+    <row r="18" s="24" customFormat="1" ht="45" spans="1:6">
+      <c r="A18" s="38"/>
+      <c r="B18" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C18" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A18" s="34"/>
-      <c r="B18" s="39" t="s">
+      <c r="D18" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="24" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="38"/>
+      <c r="B19" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C19" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D19" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E19" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>253</v>
       </c>
     </row>
-    <row r="19" s="24" customFormat="1" spans="1:1">
-      <c r="A19" s="34"/>
-    </row>
     <row r="20" s="24" customFormat="1" spans="1:1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="38"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:1">
+      <c r="A21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
